--- a/squads.xlsx
+++ b/squads.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/149e958a33bc8fb0/github/nadialin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6481455D-0C68-4A2D-A4B7-3F883B05E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{6481455D-0C68-4A2D-A4B7-3F883B05E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A785F28-C1CE-4D1E-A101-385FCE68F8D5}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="855" windowWidth="28800" windowHeight="14310" xr2:uid="{2E162CB6-095D-44D3-86A9-7708DD90661F}"/>
+    <workbookView xWindow="16350" yWindow="1635" windowWidth="22050" windowHeight="14310" xr2:uid="{2E162CB6-095D-44D3-86A9-7708DD90661F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,9 +182,6 @@
     <t>Frog - Spring &amp; New Life, Sensitivity, Communicator, Stability</t>
   </si>
   <si>
-    <t>Grizzly Bear</t>
-  </si>
-  <si>
     <t>Halibut</t>
   </si>
   <si>
@@ -207,30 +203,15 @@
     <t>Hummingbird - Love, Beauty, Intelligence, Spirit Messenger and Stopper of Time</t>
   </si>
   <si>
-    <t>Killer Whale</t>
-  </si>
-  <si>
-    <t>The Killer Whale - Seas and the Underworld, Traveler &amp; Guardian and Symbol of Good</t>
-  </si>
-  <si>
     <t>Kingfisher</t>
   </si>
   <si>
-    <t>The Kingfisher - Luck, Patience, Speed and Agility</t>
-  </si>
-  <si>
     <t>Lizard</t>
   </si>
   <si>
-    <t>The Lizard - Awareness, Conservation, subconscious hopes and fears</t>
-  </si>
-  <si>
     <t>Moose</t>
   </si>
   <si>
-    <t>The Moose - Headstrong, Balance and Longevity</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -240,15 +221,9 @@
     <t>Otter</t>
   </si>
   <si>
-    <t>The Otter - Feminine Power, Playful, Trusting, Inquisitive, Bright, Loyal and speedy</t>
-  </si>
-  <si>
     <t>Owl</t>
   </si>
   <si>
-    <t>The Owl - Wisdom, silent and swift, ability to see things normally, a creature of the night</t>
-  </si>
-  <si>
     <t>Raccoon</t>
   </si>
   <si>
@@ -276,27 +251,15 @@
     <t>Seal</t>
   </si>
   <si>
-    <t>The Seal - Bright, Inquisitive, Organized</t>
-  </si>
-  <si>
     <t>Shark</t>
   </si>
   <si>
-    <t>The Shark - Remorselessness, Survival, Adaptability</t>
-  </si>
-  <si>
     <t>Snake</t>
   </si>
   <si>
-    <t>The Snake - Rebirth, Resurrection, Initiation and Transformation</t>
-  </si>
-  <si>
     <t>Spider</t>
   </si>
   <si>
-    <t>The Spider - Creativity, weaving the web of fate</t>
-  </si>
-  <si>
     <t>Squirrel</t>
   </si>
   <si>
@@ -306,36 +269,21 @@
     <t>Turtle</t>
   </si>
   <si>
-    <t>The Turtle - Self-Reliance, Tenacity, Slow Progress</t>
-  </si>
-  <si>
     <t>Weasel</t>
   </si>
   <si>
-    <t>The Weasel - Encourages you to develop your sense of inner hearing and to pay attention to your inner voice</t>
-  </si>
-  <si>
     <t>Whale</t>
   </si>
   <si>
-    <t>The Whale - Ancient Knowledge, Awareness</t>
-  </si>
-  <si>
     <t>Wolf</t>
   </si>
   <si>
-    <t>The Wolf - Intelligence &amp; Leadership - Strong Sense of Family</t>
-  </si>
-  <si>
     <t>Falcon - Soul Healing, Speed and Movement</t>
   </si>
   <si>
     <t>Fox - Cunning, Stealth and Feminine Courage</t>
   </si>
   <si>
-    <t>Grizzly Bear - Strength and Ferocity</t>
-  </si>
-  <si>
     <t>Halibut - Life protector, Strength and Stability</t>
   </si>
   <si>
@@ -343,6 +291,57 @@
   </si>
   <si>
     <t>Heron - Patience, Graceful and Easy Going</t>
+  </si>
+  <si>
+    <t>KillerWhale</t>
+  </si>
+  <si>
+    <t>GrizzlyBear</t>
+  </si>
+  <si>
+    <t>GrizzlyBear - Strength and Ferocity</t>
+  </si>
+  <si>
+    <t>KillerWhale - Seas and the Underworld, Traveler &amp; Guardian and Symbol of Good</t>
+  </si>
+  <si>
+    <t>Kingfisher - Luck, Patience, Speed and Agility</t>
+  </si>
+  <si>
+    <t>Lizard - Awareness, Conservation, subconscious hopes and fears</t>
+  </si>
+  <si>
+    <t>Moose - Headstrong, Balance and Longevity</t>
+  </si>
+  <si>
+    <t>Otter - Feminine Power, Playful, Trusting, Inquisitive, Bright, Loyal and speedy</t>
+  </si>
+  <si>
+    <t>Owl - Wisdom, silent and swift, ability to see things normally, a creature of the night</t>
+  </si>
+  <si>
+    <t>Seal - Bright, Inquisitive, Organized</t>
+  </si>
+  <si>
+    <t>Shark - Remorselessness, Survival, Adaptability</t>
+  </si>
+  <si>
+    <t>Snake - Rebirth, Resurrection, Initiation and Transformation</t>
+  </si>
+  <si>
+    <t>Spider - Creativity, weaving the web of fate</t>
+  </si>
+  <si>
+    <t>Turtle - Self-Reliance, Tenacity, Slow Progress</t>
+  </si>
+  <si>
+    <t>Weasel - Encourages you to develop your sense of inner hearing and to pay attention to your inner voice</t>
+  </si>
+  <si>
+    <t>Whale - Ancient Knowledge, Awareness</t>
+  </si>
+  <si>
+    <t>Wolf - Intelligence &amp; Leadership - Strong Sense of Family</t>
   </si>
 </sst>
 </file>
@@ -716,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801F8ACC-1537-428B-969C-1B5C52076F5E}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="A1:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +913,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,210 +926,210 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
